--- a/c5/test.xlsx
+++ b/c5/test.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\studia_projekty\vapd\c5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFEE0E5-716E-469E-80CD-54CEAD3D8C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3E2B6-EEFA-4605-9C54-65831162FA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="sex-country" sheetId="4" r:id="rId1"/>
     <sheet name="medical-data" sheetId="2" r:id="rId2"/>
     <sheet name="medical-data (2)" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'medical-data'!$A$1:$E$101</definedName>
@@ -26,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
+    <pivotCache cacheId="29" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,8 +33,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
-        <x14:slicerCache r:id="rId7"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -759,11 +758,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +816,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[test.xlsx]Sheet2!PivotTable16</c:name>
+    <c:name>[test.xlsx]sex-country!PivotTable16</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1103,6 +1102,230 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1115,7 +1338,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:f>'sex-country'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1136,7 +1359,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$5</c:f>
+              <c:f>'sex-country'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1150,7 +1373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$5</c:f>
+              <c:f>'sex-country'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1174,7 +1397,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:f>'sex-country'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1195,7 +1418,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$5</c:f>
+              <c:f>'sex-country'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1209,7 +1432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$5</c:f>
+              <c:f>'sex-country'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1233,7 +1456,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1:$D$2</c:f>
+              <c:f>'sex-country'!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1254,7 +1477,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$5</c:f>
+              <c:f>'sex-country'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1268,7 +1491,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$5</c:f>
+              <c:f>'sex-country'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1292,7 +1515,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$1:$E$2</c:f>
+              <c:f>'sex-country'!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1313,7 +1536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$5</c:f>
+              <c:f>'sex-country'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1327,7 +1550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$5</c:f>
+              <c:f>'sex-country'!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1342,7 +1565,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7267-476F-B6E4-72AA908150FE}"/>
+              <c16:uniqueId val="{00000001-7FC7-40A0-8D7E-887D11A33137}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2164,8 +2387,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="country">
@@ -2188,7 +2411,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2242,8 +2465,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="gender">
@@ -2266,7 +2489,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3054,7 +3277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCB1DAE9-2E66-45A8-8421-3719F405967C}" name="PivotTable16" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCB1DAE9-2E66-45A8-8421-3719F405967C}" name="PivotTable16" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3114,7 +3337,7 @@
   <dataFields count="1">
     <dataField name="Count of gender" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="8">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3145,6 +3368,54 @@
     <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
           <reference field="4" count="1" selected="0">
             <x v="3"/>
           </reference>
@@ -3540,7 +3811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A82B79-5784-4C7B-B22C-FD7F304AB563}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3553,15 +3826,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -3581,62 +3854,62 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>24</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>100</v>
       </c>
     </row>
@@ -3651,7 +3924,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="C20" sqref="A2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3681,7 +3954,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -3693,12 +3966,12 @@
       <c r="D2">
         <v>116</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -3710,12 +3983,12 @@
       <c r="D3">
         <v>81</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -3727,12 +4000,12 @@
       <c r="D4">
         <v>65</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -3744,12 +4017,12 @@
       <c r="D5">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -3761,12 +4034,12 @@
       <c r="D6">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -3778,12 +4051,12 @@
       <c r="D7">
         <v>106</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -3795,12 +4068,12 @@
       <c r="D8">
         <v>119</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -3812,12 +4085,12 @@
       <c r="D9">
         <v>92</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -3829,12 +4102,12 @@
       <c r="D10">
         <v>103</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
@@ -3846,12 +4119,12 @@
       <c r="D11">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
@@ -3863,12 +4136,12 @@
       <c r="D12">
         <v>60</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -3880,12 +4153,12 @@
       <c r="D13">
         <v>73</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -3897,12 +4170,12 @@
       <c r="D14">
         <v>91</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
@@ -3914,12 +4187,12 @@
       <c r="D15">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
@@ -3931,12 +4204,12 @@
       <c r="D16">
         <v>109</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
@@ -3948,12 +4221,12 @@
       <c r="D17">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -3965,12 +4238,12 @@
       <c r="D18">
         <v>66</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
@@ -3982,12 +4255,12 @@
       <c r="D19">
         <v>73</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -3999,12 +4272,12 @@
       <c r="D20">
         <v>75</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
@@ -4016,12 +4289,12 @@
       <c r="D21">
         <v>73</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
@@ -4033,12 +4306,12 @@
       <c r="D22">
         <v>114</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23">
@@ -4050,12 +4323,12 @@
       <c r="D23">
         <v>52</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
@@ -4067,12 +4340,12 @@
       <c r="D24">
         <v>52</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
@@ -4084,12 +4357,12 @@
       <c r="D25">
         <v>73</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
@@ -4101,12 +4374,12 @@
       <c r="D26">
         <v>113</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
@@ -4118,12 +4391,12 @@
       <c r="D27">
         <v>106</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
@@ -4135,12 +4408,12 @@
       <c r="D28">
         <v>90</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
@@ -4152,12 +4425,12 @@
       <c r="D29">
         <v>101</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
@@ -4169,12 +4442,12 @@
       <c r="D30">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31">
@@ -4186,12 +4459,12 @@
       <c r="D31">
         <v>107</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32">
@@ -4203,12 +4476,12 @@
       <c r="D32">
         <v>119</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
@@ -4220,12 +4493,12 @@
       <c r="D33">
         <v>104</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34">
@@ -4237,12 +4510,12 @@
       <c r="D34">
         <v>88</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35">
@@ -4254,12 +4527,12 @@
       <c r="D35">
         <v>52</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36">
@@ -4271,12 +4544,12 @@
       <c r="D36">
         <v>84</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37">
@@ -4288,12 +4561,12 @@
       <c r="D37">
         <v>80</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38">
@@ -4305,12 +4578,12 @@
       <c r="D38">
         <v>97</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
@@ -4322,12 +4595,12 @@
       <c r="D39">
         <v>114</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40">
@@ -4339,12 +4612,12 @@
       <c r="D40">
         <v>95</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
@@ -4356,12 +4629,12 @@
       <c r="D41">
         <v>66</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
@@ -4373,12 +4646,12 @@
       <c r="D42">
         <v>83</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43">
@@ -4390,12 +4663,12 @@
       <c r="D43">
         <v>93</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44">
@@ -4407,12 +4680,12 @@
       <c r="D44">
         <v>56</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45">
@@ -4424,12 +4697,12 @@
       <c r="D45">
         <v>50</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46">
@@ -4441,12 +4714,12 @@
       <c r="D46">
         <v>71</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
@@ -4458,12 +4731,12 @@
       <c r="D47">
         <v>116</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48">
@@ -4475,12 +4748,12 @@
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49">
@@ -4492,12 +4765,12 @@
       <c r="D49">
         <v>68</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50">
@@ -4509,12 +4782,12 @@
       <c r="D50">
         <v>53</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51">
@@ -4526,12 +4799,12 @@
       <c r="D51">
         <v>99</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52">
@@ -4543,12 +4816,12 @@
       <c r="D52">
         <v>66</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
@@ -4560,12 +4833,12 @@
       <c r="D53">
         <v>55</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54">
@@ -4577,12 +4850,12 @@
       <c r="D54">
         <v>97</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55">
@@ -4594,12 +4867,12 @@
       <c r="D55">
         <v>117</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56">
@@ -4611,12 +4884,12 @@
       <c r="D56">
         <v>75</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
@@ -4628,12 +4901,12 @@
       <c r="D57">
         <v>71</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
@@ -4645,12 +4918,12 @@
       <c r="D58">
         <v>117</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59">
@@ -4662,12 +4935,12 @@
       <c r="D59">
         <v>65</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
@@ -4679,12 +4952,12 @@
       <c r="D60">
         <v>117</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61">
@@ -4696,12 +4969,12 @@
       <c r="D61">
         <v>51</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62">
@@ -4713,12 +4986,12 @@
       <c r="D62">
         <v>66</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63">
@@ -4730,12 +5003,12 @@
       <c r="D63">
         <v>85</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64">
@@ -4747,12 +5020,12 @@
       <c r="D64">
         <v>109</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65">
@@ -4764,12 +5037,12 @@
       <c r="D65">
         <v>88</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66">
@@ -4781,12 +5054,12 @@
       <c r="D66">
         <v>100</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67">
@@ -4798,12 +5071,12 @@
       <c r="D67">
         <v>91</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68">
@@ -4815,12 +5088,12 @@
       <c r="D68">
         <v>99</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69">
@@ -4832,12 +5105,12 @@
       <c r="D69">
         <v>72</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70">
@@ -4849,12 +5122,12 @@
       <c r="D70">
         <v>67</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71">
@@ -4866,12 +5139,12 @@
       <c r="D71">
         <v>68</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72">
@@ -4883,12 +5156,12 @@
       <c r="D72">
         <v>70</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73">
@@ -4900,12 +5173,12 @@
       <c r="D73">
         <v>94</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74">
@@ -4917,12 +5190,12 @@
       <c r="D74">
         <v>76</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75">
@@ -4934,12 +5207,12 @@
       <c r="D75">
         <v>110</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76">
@@ -4951,12 +5224,12 @@
       <c r="D76">
         <v>92</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77">
@@ -4968,12 +5241,12 @@
       <c r="D77">
         <v>115</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78">
@@ -4985,12 +5258,12 @@
       <c r="D78">
         <v>82</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79">
@@ -5002,12 +5275,12 @@
       <c r="D79">
         <v>101</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80">
@@ -5019,12 +5292,12 @@
       <c r="D80">
         <v>113</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81">
@@ -5036,12 +5309,12 @@
       <c r="D81">
         <v>94</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82">
@@ -5053,12 +5326,12 @@
       <c r="D82">
         <v>96</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83">
@@ -5070,12 +5343,12 @@
       <c r="D83">
         <v>85</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84">
@@ -5087,12 +5360,12 @@
       <c r="D84">
         <v>112</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85">
@@ -5104,12 +5377,12 @@
       <c r="D85">
         <v>64</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86">
@@ -5121,12 +5394,12 @@
       <c r="D86">
         <v>65</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87">
@@ -5138,12 +5411,12 @@
       <c r="D87">
         <v>78</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88">
@@ -5155,12 +5428,12 @@
       <c r="D88">
         <v>107</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89">
@@ -5172,12 +5445,12 @@
       <c r="D89">
         <v>72</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90">
@@ -5189,12 +5462,12 @@
       <c r="D90">
         <v>120</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91">
@@ -5206,12 +5479,12 @@
       <c r="D91">
         <v>94</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92">
@@ -5223,12 +5496,12 @@
       <c r="D92">
         <v>52</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93">
@@ -5240,12 +5513,12 @@
       <c r="D93">
         <v>117</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
@@ -5257,12 +5530,12 @@
       <c r="D94">
         <v>71</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95">
@@ -5274,12 +5547,12 @@
       <c r="D95">
         <v>77</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96">
@@ -5291,12 +5564,12 @@
       <c r="D96">
         <v>80</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97">
@@ -5308,12 +5581,12 @@
       <c r="D97">
         <v>104</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98">
@@ -5325,12 +5598,12 @@
       <c r="D98">
         <v>99</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99">
@@ -5342,12 +5615,12 @@
       <c r="D99">
         <v>115</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
       <c r="B100">
@@ -5359,12 +5632,12 @@
       <c r="D100">
         <v>117</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101">
@@ -5376,7 +5649,7 @@
       <c r="D101">
         <v>103</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5406,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E71C0-A5A9-4DF5-B1F8-37F5E8F1E5A8}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -5448,13 +5721,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
@@ -5466,7 +5739,7 @@
       <c r="F2">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2">
@@ -5475,13 +5748,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
@@ -5493,7 +5766,7 @@
       <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3">
@@ -5502,13 +5775,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
@@ -5520,7 +5793,7 @@
       <c r="F4">
         <v>65</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4">
@@ -5529,13 +5802,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
@@ -5547,7 +5820,7 @@
       <c r="F5">
         <v>92</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5">
@@ -5556,13 +5829,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
@@ -5574,7 +5847,7 @@
       <c r="F6">
         <v>117</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6">
@@ -5583,13 +5856,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
@@ -5601,7 +5874,7 @@
       <c r="F7">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7">
@@ -5610,13 +5883,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
@@ -5628,7 +5901,7 @@
       <c r="F8">
         <v>119</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8">
@@ -5637,13 +5910,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
@@ -5655,7 +5928,7 @@
       <c r="F9">
         <v>77</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9">
@@ -5664,13 +5937,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
@@ -5682,7 +5955,7 @@
       <c r="F10">
         <v>66</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10">
@@ -5691,13 +5964,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
@@ -5709,7 +5982,7 @@
       <c r="F11">
         <v>99</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
       <c r="H11">
@@ -5718,13 +5991,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12">
@@ -5736,7 +6009,7 @@
       <c r="F12">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12">
@@ -5745,13 +6018,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
@@ -5763,7 +6036,7 @@
       <c r="F13">
         <v>73</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>9</v>
       </c>
       <c r="H13">
@@ -5772,13 +6045,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14">
@@ -5790,7 +6063,7 @@
       <c r="F14">
         <v>91</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="H14">
@@ -5799,13 +6072,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15">
@@ -5817,7 +6090,7 @@
       <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15">
@@ -5826,13 +6099,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
@@ -5844,7 +6117,7 @@
       <c r="F16">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16">
@@ -5853,13 +6126,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
@@ -5871,7 +6144,7 @@
       <c r="F17">
         <v>56</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17">
@@ -5880,13 +6153,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
@@ -5898,7 +6171,7 @@
       <c r="F18">
         <v>66</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18">
@@ -5907,13 +6180,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
@@ -5925,7 +6198,7 @@
       <c r="F19">
         <v>73</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
       <c r="H19">
@@ -5934,13 +6207,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20">
@@ -5952,7 +6225,7 @@
       <c r="F20">
         <v>93</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
       <c r="H20">
@@ -5961,13 +6234,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
@@ -5979,7 +6252,7 @@
       <c r="F21">
         <v>73</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21">
@@ -5988,13 +6261,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22">
@@ -6006,7 +6279,7 @@
       <c r="F22">
         <v>114</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>10</v>
       </c>
       <c r="H22">
@@ -6015,13 +6288,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
@@ -6033,7 +6306,7 @@
       <c r="F23">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23">
@@ -6042,13 +6315,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24">
@@ -6060,7 +6333,7 @@
       <c r="F24">
         <v>52</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24">
@@ -6069,13 +6342,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25">
@@ -6087,7 +6360,7 @@
       <c r="F25">
         <v>73</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>9</v>
       </c>
       <c r="H25">
@@ -6096,13 +6369,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26">
@@ -6114,7 +6387,7 @@
       <c r="F26">
         <v>113</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>9</v>
       </c>
       <c r="H26">
@@ -6123,13 +6396,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27">
@@ -6141,7 +6414,7 @@
       <c r="F27">
         <v>106</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>10</v>
       </c>
       <c r="H27">
@@ -6150,13 +6423,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28">
@@ -6168,7 +6441,7 @@
       <c r="F28">
         <v>119</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>7</v>
       </c>
       <c r="H28">
@@ -6177,13 +6450,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
@@ -6195,7 +6468,7 @@
       <c r="F29">
         <v>75</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>7</v>
       </c>
       <c r="H29">
@@ -6204,13 +6477,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30">
@@ -6222,7 +6495,7 @@
       <c r="F30">
         <v>63</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>10</v>
       </c>
       <c r="H30">
@@ -6231,13 +6504,13 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
@@ -6249,7 +6522,7 @@
       <c r="F31">
         <v>107</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31">
@@ -6258,13 +6531,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32">
@@ -6276,7 +6549,7 @@
       <c r="F32">
         <v>103</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>7</v>
       </c>
       <c r="H32">
@@ -6285,13 +6558,13 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33">
@@ -6303,7 +6576,7 @@
       <c r="F33">
         <v>104</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>9</v>
       </c>
       <c r="H33">
@@ -6312,13 +6585,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34">
@@ -6330,7 +6603,7 @@
       <c r="F34">
         <v>115</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>7</v>
       </c>
       <c r="H34">
@@ -6339,13 +6612,13 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35">
@@ -6357,7 +6630,7 @@
       <c r="F35">
         <v>52</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>6</v>
       </c>
       <c r="H35">
@@ -6366,13 +6639,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36">
@@ -6384,7 +6657,7 @@
       <c r="F36">
         <v>65</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>7</v>
       </c>
       <c r="H36">
@@ -6393,13 +6666,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37">
@@ -6411,7 +6684,7 @@
       <c r="F37">
         <v>64</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>7</v>
       </c>
       <c r="H37">
@@ -6420,13 +6693,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38">
@@ -6438,7 +6711,7 @@
       <c r="F38">
         <v>97</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38">
@@ -6447,13 +6720,13 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39">
@@ -6465,7 +6738,7 @@
       <c r="F39">
         <v>114</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>9</v>
       </c>
       <c r="H39">
@@ -6474,13 +6747,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40">
@@ -6492,7 +6765,7 @@
       <c r="F40">
         <v>95</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>10</v>
       </c>
       <c r="H40">
@@ -6501,13 +6774,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41">
@@ -6519,7 +6792,7 @@
       <c r="F41">
         <v>80</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>7</v>
       </c>
       <c r="H41">
@@ -6528,13 +6801,13 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42">
@@ -6546,7 +6819,7 @@
       <c r="F42">
         <v>65</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>7</v>
       </c>
       <c r="H42">
@@ -6555,13 +6828,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43">
@@ -6573,7 +6846,7 @@
       <c r="F43">
         <v>66</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>6</v>
       </c>
       <c r="H43">
@@ -6582,13 +6855,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44">
@@ -6600,7 +6873,7 @@
       <c r="F44">
         <v>56</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>10</v>
       </c>
       <c r="H44">
@@ -6609,13 +6882,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45">
@@ -6627,7 +6900,7 @@
       <c r="F45">
         <v>50</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="H45">
@@ -6636,13 +6909,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46">
@@ -6654,7 +6927,7 @@
       <c r="F46">
         <v>88</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>7</v>
       </c>
       <c r="H46">
@@ -6663,13 +6936,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47">
@@ -6681,7 +6954,7 @@
       <c r="F47">
         <v>116</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>10</v>
       </c>
       <c r="H47">
@@ -6690,13 +6963,13 @@
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48">
@@ -6708,7 +6981,7 @@
       <c r="F48">
         <v>55</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>9</v>
       </c>
       <c r="H48">
@@ -6717,13 +6990,13 @@
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49">
@@ -6735,7 +7008,7 @@
       <c r="F49">
         <v>68</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>6</v>
       </c>
       <c r="H49">
@@ -6744,13 +7017,13 @@
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
@@ -6762,7 +7035,7 @@
       <c r="F50">
         <v>53</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>10</v>
       </c>
       <c r="H50">
@@ -6771,13 +7044,13 @@
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
@@ -6789,7 +7062,7 @@
       <c r="F51">
         <v>75</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="H51">
@@ -6798,13 +7071,13 @@
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52">
@@ -6816,7 +7089,7 @@
       <c r="F52">
         <v>97</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>6</v>
       </c>
       <c r="H52">
@@ -6825,13 +7098,13 @@
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53">
@@ -6843,7 +7116,7 @@
       <c r="F53">
         <v>55</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>9</v>
       </c>
       <c r="H53">
@@ -6852,13 +7125,13 @@
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54">
@@ -6870,7 +7143,7 @@
       <c r="F54">
         <v>106</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>6</v>
       </c>
       <c r="H54">
@@ -6879,13 +7152,13 @@
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55">
@@ -6897,7 +7170,7 @@
       <c r="F55">
         <v>117</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>10</v>
       </c>
       <c r="H55">
@@ -6906,13 +7179,13 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56">
@@ -6924,7 +7197,7 @@
       <c r="F56">
         <v>71</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>7</v>
       </c>
       <c r="H56">
@@ -6933,13 +7206,13 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57">
@@ -6951,7 +7224,7 @@
       <c r="F57">
         <v>88</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>7</v>
       </c>
       <c r="H57">
@@ -6960,13 +7233,13 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58">
@@ -6978,7 +7251,7 @@
       <c r="F58">
         <v>104</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>7</v>
       </c>
       <c r="H58">
@@ -6987,13 +7260,13 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>194</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59">
@@ -7005,7 +7278,7 @@
       <c r="F59">
         <v>94</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>7</v>
       </c>
       <c r="H59">
@@ -7014,13 +7287,13 @@
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60">
@@ -7032,7 +7305,7 @@
       <c r="F60">
         <v>117</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>10</v>
       </c>
       <c r="H60">
@@ -7041,13 +7314,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61">
@@ -7059,7 +7332,7 @@
       <c r="F61">
         <v>51</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>9</v>
       </c>
       <c r="H61">
@@ -7068,13 +7341,13 @@
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62">
@@ -7086,7 +7359,7 @@
       <c r="F62">
         <v>107</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>6</v>
       </c>
       <c r="H62">
@@ -7095,13 +7368,13 @@
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63">
@@ -7113,7 +7386,7 @@
       <c r="F63">
         <v>85</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>6</v>
       </c>
       <c r="H63">
@@ -7122,13 +7395,13 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64">
@@ -7140,7 +7413,7 @@
       <c r="F64">
         <v>117</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>7</v>
       </c>
       <c r="H64">
@@ -7149,13 +7422,13 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65">
@@ -7167,7 +7440,7 @@
       <c r="F65">
         <v>81</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>7</v>
       </c>
       <c r="H65">
@@ -7176,13 +7449,13 @@
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66">
@@ -7194,7 +7467,7 @@
       <c r="F66">
         <v>100</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>9</v>
       </c>
       <c r="H66">
@@ -7203,13 +7476,13 @@
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67">
@@ -7221,7 +7494,7 @@
       <c r="F67">
         <v>91</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>9</v>
       </c>
       <c r="H67">
@@ -7230,13 +7503,13 @@
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68">
@@ -7248,7 +7521,7 @@
       <c r="F68">
         <v>99</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>10</v>
       </c>
       <c r="H68">
@@ -7257,13 +7530,13 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69">
@@ -7275,7 +7548,7 @@
       <c r="F69">
         <v>120</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>7</v>
       </c>
       <c r="H69">
@@ -7284,13 +7557,13 @@
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70">
@@ -7302,7 +7575,7 @@
       <c r="F70">
         <v>67</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>9</v>
       </c>
       <c r="H70">
@@ -7311,13 +7584,13 @@
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71">
@@ -7329,7 +7602,7 @@
       <c r="F71">
         <v>68</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>6</v>
       </c>
       <c r="H71">
@@ -7338,13 +7611,13 @@
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72">
@@ -7356,7 +7629,7 @@
       <c r="F72">
         <v>116</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>6</v>
       </c>
       <c r="H72">
@@ -7365,13 +7638,13 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73">
@@ -7383,7 +7656,7 @@
       <c r="F73">
         <v>94</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>9</v>
       </c>
       <c r="H73">
@@ -7392,13 +7665,13 @@
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74">
@@ -7410,7 +7683,7 @@
       <c r="F74">
         <v>76</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>10</v>
       </c>
       <c r="H74">
@@ -7419,13 +7692,13 @@
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75">
@@ -7437,7 +7710,7 @@
       <c r="F75">
         <v>110</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>9</v>
       </c>
       <c r="H75">
@@ -7446,13 +7719,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76">
@@ -7464,7 +7737,7 @@
       <c r="F76">
         <v>72</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>7</v>
       </c>
       <c r="H76">
@@ -7473,13 +7746,13 @@
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77">
@@ -7491,7 +7764,7 @@
       <c r="F77">
         <v>99</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>6</v>
       </c>
       <c r="H77">
@@ -7500,13 +7773,13 @@
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78">
@@ -7518,7 +7791,7 @@
       <c r="F78">
         <v>82</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>9</v>
       </c>
       <c r="H78">
@@ -7527,13 +7800,13 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79">
@@ -7545,7 +7818,7 @@
       <c r="F79">
         <v>101</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>6</v>
       </c>
       <c r="H79">
@@ -7554,13 +7827,13 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80">
@@ -7572,7 +7845,7 @@
       <c r="F80">
         <v>113</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>9</v>
       </c>
       <c r="H80">
@@ -7581,13 +7854,13 @@
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81">
@@ -7599,7 +7872,7 @@
       <c r="F81">
         <v>94</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>9</v>
       </c>
       <c r="H81">
@@ -7608,13 +7881,13 @@
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82">
@@ -7626,7 +7899,7 @@
       <c r="F82">
         <v>96</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>9</v>
       </c>
       <c r="H82">
@@ -7635,13 +7908,13 @@
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83">
@@ -7653,7 +7926,7 @@
       <c r="F83">
         <v>85</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>10</v>
       </c>
       <c r="H83">
@@ -7662,13 +7935,13 @@
       </c>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84">
@@ -7680,7 +7953,7 @@
       <c r="F84">
         <v>112</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>10</v>
       </c>
       <c r="H84">
@@ -7689,13 +7962,13 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85">
@@ -7707,7 +7980,7 @@
       <c r="F85">
         <v>64</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>6</v>
       </c>
       <c r="H85">
@@ -7716,13 +7989,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86">
@@ -7734,7 +8007,7 @@
       <c r="F86">
         <v>92</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>7</v>
       </c>
       <c r="H86">
@@ -7743,13 +8016,13 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87">
@@ -7761,7 +8034,7 @@
       <c r="F87">
         <v>109</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>7</v>
       </c>
       <c r="H87">
@@ -7770,13 +8043,13 @@
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88">
@@ -7788,7 +8061,7 @@
       <c r="F88">
         <v>103</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>6</v>
       </c>
       <c r="H88">
@@ -7797,13 +8070,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89">
@@ -7815,7 +8088,7 @@
       <c r="F89">
         <v>72</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>9</v>
       </c>
       <c r="H89">
@@ -7824,13 +8097,13 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90">
@@ -7842,7 +8115,7 @@
       <c r="F90">
         <v>109</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>7</v>
       </c>
       <c r="H90">
@@ -7851,13 +8124,13 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91">
@@ -7869,7 +8142,7 @@
       <c r="F91">
         <v>69</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>7</v>
       </c>
       <c r="H91">
@@ -7878,13 +8151,13 @@
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92">
@@ -7896,7 +8169,7 @@
       <c r="F92">
         <v>52</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>9</v>
       </c>
       <c r="H92">
@@ -7905,13 +8178,13 @@
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93">
@@ -7923,7 +8196,7 @@
       <c r="F93">
         <v>117</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" t="s">
         <v>9</v>
       </c>
       <c r="H93">
@@ -7932,13 +8205,13 @@
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94">
@@ -7950,7 +8223,7 @@
       <c r="F94">
         <v>71</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>9</v>
       </c>
       <c r="H94">
@@ -7959,13 +8232,13 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95">
@@ -7977,7 +8250,7 @@
       <c r="F95">
         <v>84</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>7</v>
       </c>
       <c r="H95">
@@ -7986,13 +8259,13 @@
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>5</v>
       </c>
       <c r="D96">
@@ -8004,7 +8277,7 @@
       <c r="F96">
         <v>80</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" t="s">
         <v>9</v>
       </c>
       <c r="H96">
@@ -8013,13 +8286,13 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>8</v>
       </c>
       <c r="D97">
@@ -8031,7 +8304,7 @@
       <c r="F97">
         <v>101</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" t="s">
         <v>7</v>
       </c>
       <c r="H97">
@@ -8040,13 +8313,13 @@
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98">
@@ -8058,7 +8331,7 @@
       <c r="F98">
         <v>95</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>6</v>
       </c>
       <c r="H98">
@@ -8067,13 +8340,13 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99">
@@ -8085,7 +8358,7 @@
       <c r="F99">
         <v>78</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" t="s">
         <v>7</v>
       </c>
       <c r="H99">
@@ -8094,13 +8367,13 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100">
@@ -8112,7 +8385,7 @@
       <c r="F100">
         <v>90</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>7</v>
       </c>
       <c r="H100">
@@ -8121,13 +8394,13 @@
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101">
@@ -8139,7 +8412,7 @@
       <c r="F101">
         <v>115</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>6</v>
       </c>
       <c r="H101">
@@ -8161,18 +8434,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
